--- a/Databases/Check_lists_DR400.xlsx
+++ b/Databases/Check_lists_DR400.xlsx
@@ -40,106 +40,449 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
   <si>
-    <t>Vi atterrissage court (V60°)</t>
-  </si>
-  <si>
-    <t>Vi atterrissage (V 0° ou 15°)</t>
-  </si>
-  <si>
-    <t>Checklist finale</t>
-  </si>
-  <si>
-    <t>115 km/h</t>
-  </si>
-  <si>
-    <t>120 km/h</t>
-  </si>
-  <si>
-    <t>A convenance</t>
-  </si>
-  <si>
-    <t>&lt; 170 km/h</t>
-  </si>
-  <si>
-    <t>15 - Piste dégagée</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>15.6</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Au neutre</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>16 - Au parking</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>16.10</t>
-  </si>
-  <si>
-    <t>OFF, enlever clef</t>
-  </si>
-  <si>
-    <t>Essai coupure</t>
-  </si>
-  <si>
-    <t>Maxi 900 tr/mn</t>
-  </si>
-  <si>
-    <t>17 - Après Arrêt Moteur</t>
+    <t>Chute régime : Environ 100 tr/mn</t>
+  </si>
+  <si>
+    <t>Froid (pousser)</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>Dans le vert</t>
+  </si>
+  <si>
+    <t>Dépression</t>
+  </si>
+  <si>
+    <t>Ralenti</t>
+  </si>
+  <si>
+    <t>Vérifier (700 tr/mn maxi)</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>Opération</t>
+  </si>
+  <si>
+    <t>Numérotation</t>
+  </si>
+  <si>
+    <t>Action à réaliser</t>
+  </si>
+  <si>
+    <t>Commentaires :</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Verrière</t>
+  </si>
+  <si>
+    <t>Volets</t>
+  </si>
+  <si>
+    <t>Compensateur</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Magnétos</t>
+  </si>
+  <si>
+    <t>Marche</t>
+  </si>
+  <si>
+    <t>Check Contacts magnétos</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Check Tous contacts électriques</t>
+  </si>
+  <si>
+    <t>Mixture</t>
+  </si>
+  <si>
+    <t>Plein pauvre</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Jaugeurs</t>
+  </si>
+  <si>
+    <t>Phares, anticollision, feux nav</t>
+  </si>
+  <si>
+    <t>Vérifier</t>
+  </si>
+  <si>
+    <t>Avertisseur décrochage</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Phase d'Atterrissage</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>Arc blanc</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>14 - Finale</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>Vi sans vent (V 60°)</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Pompe Electrique</t>
+  </si>
+  <si>
+    <t>ON, pression vérifiée</t>
+  </si>
+  <si>
+    <t>Démarrage injections</t>
+  </si>
+  <si>
+    <t>A froid (5), à chaud (2)</t>
+  </si>
+  <si>
+    <t>Démarrage gaz</t>
+  </si>
+  <si>
+    <t>1 cm</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>Champ d'hélice</t>
+  </si>
+  <si>
+    <t>Dégagé</t>
+  </si>
+  <si>
+    <t>Démarreur</t>
+  </si>
+  <si>
+    <t>Régime</t>
+  </si>
+  <si>
+    <t>1000 à 1200 tr/mn</t>
+  </si>
+  <si>
+    <t>Alternateur</t>
+  </si>
+  <si>
+    <t>Voltmètre</t>
+  </si>
+  <si>
+    <t>Vérifier dans le vert</t>
+  </si>
+  <si>
+    <t>Voyant alternateur</t>
+  </si>
+  <si>
+    <t>Vérifier éteint</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>5 - Après Mise en route</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Sièges</t>
+  </si>
+  <si>
+    <t>Ceintures</t>
+  </si>
+  <si>
+    <t>Réservoir principal essence</t>
+  </si>
+  <si>
+    <t>Commande réservoir auxiliaire</t>
+  </si>
+  <si>
+    <t>Frein de parc</t>
+  </si>
+  <si>
+    <t>Réchauf carburant</t>
+  </si>
+  <si>
+    <t>Fusibles &amp; Breakers</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>A bord</t>
+  </si>
+  <si>
+    <t>Dans les normes</t>
+  </si>
+  <si>
+    <t>Noter</t>
+  </si>
+  <si>
+    <t>Régler, verrouiller</t>
+  </si>
+  <si>
+    <t>En place</t>
+  </si>
+  <si>
+    <t>Essayer, rentrer</t>
+  </si>
+  <si>
+    <t>Débattement essayer</t>
+  </si>
+  <si>
+    <t>Position Ouvert</t>
+  </si>
+  <si>
+    <t>Pousser</t>
+  </si>
+  <si>
+    <t>Serrer</t>
+  </si>
+  <si>
+    <t>Plein riche</t>
+  </si>
+  <si>
+    <t>Essayer, froid (pousser)</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Effectuée, Radio OFF</t>
+  </si>
+  <si>
+    <t>Abord dégagés, extincteurs repérés</t>
+  </si>
+  <si>
+    <t>Voyants alarme</t>
+  </si>
+  <si>
+    <t>Check Boucle radio</t>
+  </si>
+  <si>
+    <t>Anti-collision</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>4 - Mise en route</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Vérifier Mano jaune ou vert</t>
+  </si>
+  <si>
+    <t>Pression d'huile (1)</t>
+  </si>
+  <si>
+    <t>Pression d'huile (2)</t>
+  </si>
+  <si>
+    <t>Vérifier voyant éteint</t>
+  </si>
+  <si>
+    <t>Vérifiés, comparés au logbook</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier Mano jaune ou vert  </t>
+  </si>
+  <si>
+    <t>Température d'huile</t>
+  </si>
+  <si>
+    <t>Check réchauffage carburant</t>
+  </si>
+  <si>
+    <t>Check mixture</t>
+  </si>
+  <si>
+    <t>Vérifier Décollée</t>
+  </si>
+  <si>
+    <t>Froid (poussé)</t>
+  </si>
+  <si>
+    <t>1800 tr/mn</t>
+  </si>
+  <si>
+    <t>Sur R puis L puis BOTH</t>
+  </si>
+  <si>
+    <t>Chute régime maxi : 175 tr/mn
+Ecart maxi entre L et R 50 tr/min</t>
+  </si>
+  <si>
+    <t>Appauvrir jusqu'à diminution du régime, puis revenir rapidement à "plein riche"</t>
+  </si>
+  <si>
+    <t>Chaud (tirer)</t>
   </si>
   <si>
     <t>Heure &amp; Index Horaire</t>
@@ -276,6 +619,234 @@
     <t>Affichées</t>
   </si>
   <si>
+    <t>Interrupteur casque/HP</t>
+  </si>
+  <si>
+    <t>ON, régler</t>
+  </si>
+  <si>
+    <t>Interphone</t>
+  </si>
+  <si>
+    <t>ATIS</t>
+  </si>
+  <si>
+    <t>Ecouter &amp; exploiter</t>
+  </si>
+  <si>
+    <t>VHF</t>
+  </si>
+  <si>
+    <t>Régler Fréquences &amp; Volume</t>
+  </si>
+  <si>
+    <t>VOR</t>
+  </si>
+  <si>
+    <t>Régler Fréquences</t>
+  </si>
+  <si>
+    <t>Transpondeur</t>
+  </si>
+  <si>
+    <t>SBY, 7000</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Purges (x2)</t>
+  </si>
+  <si>
+    <t>Niveau d'huile</t>
+  </si>
+  <si>
+    <t>Tour avion complet</t>
+  </si>
+  <si>
+    <t>Barre de manœuvre</t>
+  </si>
+  <si>
+    <t>Caches Pitot et statiques</t>
+  </si>
+  <si>
+    <t>Effectuer</t>
+  </si>
+  <si>
+    <t>Vérifier entre 6 et 8</t>
+  </si>
+  <si>
+    <t>Selon manuel de vol</t>
+  </si>
+  <si>
+    <t>Enlever</t>
+  </si>
+  <si>
+    <t>3 - Avant Mise en Route</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>Documents de vol</t>
+  </si>
+  <si>
+    <t>Devis de masse et centrage</t>
+  </si>
+  <si>
+    <t>Index horaire</t>
+  </si>
+  <si>
+    <t>Mini 2220 tr/mn</t>
+  </si>
+  <si>
+    <t>Plein gaz</t>
+  </si>
+  <si>
+    <t>11 - A 300 ft et Obstacles dégagés</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>Vi de montée taux max</t>
+  </si>
+  <si>
+    <t>Paramètres moteurs</t>
+  </si>
+  <si>
+    <t>Pas d'alarmes</t>
+  </si>
+  <si>
+    <t>Rentrer</t>
+  </si>
+  <si>
+    <t>150 km/h</t>
+  </si>
+  <si>
+    <t>A la demande</t>
+  </si>
+  <si>
+    <t>2450 tr/mn</t>
+  </si>
+  <si>
+    <t>12 - Descente</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Réchauffage carburant</t>
+  </si>
+  <si>
+    <t>QNH</t>
+  </si>
+  <si>
+    <t>13 - Vent Arrière</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Réduction de vitesse Vi</t>
+  </si>
+  <si>
+    <t>Réservoir principal</t>
+  </si>
+  <si>
     <t>Check QNH réglé, noter erreur Alti</t>
   </si>
   <si>
@@ -408,249 +979,6 @@
     <t>100 km/h</t>
   </si>
   <si>
-    <t>Mini 2220 tr/mn</t>
-  </si>
-  <si>
-    <t>Plein gaz</t>
-  </si>
-  <si>
-    <t>11 - A 300 ft et Obstacles dégagés</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>Vi de montée taux max</t>
-  </si>
-  <si>
-    <t>Paramètres moteurs</t>
-  </si>
-  <si>
-    <t>Pas d'alarmes</t>
-  </si>
-  <si>
-    <t>Rentrer</t>
-  </si>
-  <si>
-    <t>150 km/h</t>
-  </si>
-  <si>
-    <t>A la demande</t>
-  </si>
-  <si>
-    <t>2450 tr/mn</t>
-  </si>
-  <si>
-    <t>12 - Descente</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>Réchauffage carburant</t>
-  </si>
-  <si>
-    <t>QNH</t>
-  </si>
-  <si>
-    <t>13 - Vent Arrière</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>Réduction de vitesse Vi</t>
-  </si>
-  <si>
-    <t>Réservoir principal</t>
-  </si>
-  <si>
-    <t>Phase d'Atterrissage</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>Arc blanc</t>
-  </si>
-  <si>
-    <t>15°</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>14 - Finale</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>Vi sans vent (V 60°)</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>Pompe Electrique</t>
-  </si>
-  <si>
-    <t>ON, pression vérifiée</t>
-  </si>
-  <si>
-    <t>Démarrage injections</t>
-  </si>
-  <si>
-    <t>A froid (5), à chaud (2)</t>
-  </si>
-  <si>
-    <t>Démarrage gaz</t>
-  </si>
-  <si>
-    <t>1 cm</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>Champ d'hélice</t>
-  </si>
-  <si>
-    <t>Dégagé</t>
-  </si>
-  <si>
-    <t>Démarreur</t>
-  </si>
-  <si>
-    <t>Régime</t>
-  </si>
-  <si>
-    <t>1000 à 1200 tr/mn</t>
-  </si>
-  <si>
-    <t>Alternateur</t>
-  </si>
-  <si>
-    <t>Voltmètre</t>
-  </si>
-  <si>
-    <t>Vérifier dans le vert</t>
-  </si>
-  <si>
-    <t>Voyant alternateur</t>
-  </si>
-  <si>
-    <t>Vérifier éteint</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>5 - Après Mise en route</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
     <t>5.8</t>
   </si>
   <si>
@@ -771,434 +1099,106 @@
     <t>1200 tr/mn</t>
   </si>
   <si>
-    <t>Vérifier Mano jaune ou vert</t>
-  </si>
-  <si>
-    <t>Pression d'huile (1)</t>
-  </si>
-  <si>
-    <t>Pression d'huile (2)</t>
-  </si>
-  <si>
-    <t>Vérifier voyant éteint</t>
-  </si>
-  <si>
-    <t>Vérifiés, comparés au logbook</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier Mano jaune ou vert  </t>
-  </si>
-  <si>
-    <t>Température d'huile</t>
-  </si>
-  <si>
-    <t>Check réchauffage carburant</t>
-  </si>
-  <si>
-    <t>Check mixture</t>
-  </si>
-  <si>
-    <t>Vérifier Décollée</t>
-  </si>
-  <si>
-    <t>Froid (poussé)</t>
-  </si>
-  <si>
-    <t>1800 tr/mn</t>
-  </si>
-  <si>
-    <t>Sur R puis L puis BOTH</t>
-  </si>
-  <si>
-    <t>Chute régime maxi : 175 tr/mn
-Ecart maxi entre L et R 50 tr/min</t>
-  </si>
-  <si>
-    <t>Appauvrir jusqu'à diminution du régime, puis revenir rapidement à "plein riche"</t>
-  </si>
-  <si>
-    <t>Chaud (tirer)</t>
-  </si>
-  <si>
-    <t>Chute régime : Environ 100 tr/mn</t>
-  </si>
-  <si>
-    <t>Froid (pousser)</t>
-  </si>
-  <si>
-    <t>7.12</t>
-  </si>
-  <si>
-    <t>7.13</t>
-  </si>
-  <si>
-    <t>Dans le vert</t>
-  </si>
-  <si>
-    <t>Dépression</t>
-  </si>
-  <si>
-    <t>Ralenti</t>
-  </si>
-  <si>
-    <t>Vérifier (700 tr/mn maxi)</t>
-  </si>
-  <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>7.15</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>Opération</t>
-  </si>
-  <si>
-    <t>Numérotation</t>
-  </si>
-  <si>
-    <t>Action à réaliser</t>
-  </si>
-  <si>
-    <t>Commentaires :</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Verrière</t>
-  </si>
-  <si>
-    <t>Volets</t>
-  </si>
-  <si>
-    <t>Compensateur</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>Magnétos</t>
-  </si>
-  <si>
-    <t>Marche</t>
-  </si>
-  <si>
-    <t>Check Contacts magnétos</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Check Tous contacts électriques</t>
-  </si>
-  <si>
-    <t>Mixture</t>
-  </si>
-  <si>
-    <t>Plein pauvre</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>Jaugeurs</t>
-  </si>
-  <si>
-    <t>Phares, anticollision, feux nav</t>
-  </si>
-  <si>
-    <t>Vérifier</t>
-  </si>
-  <si>
-    <t>Avertisseur décrochage</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>Interrupteur casque/HP</t>
-  </si>
-  <si>
-    <t>ON, régler</t>
-  </si>
-  <si>
-    <t>Interphone</t>
-  </si>
-  <si>
-    <t>ATIS</t>
-  </si>
-  <si>
-    <t>Ecouter &amp; exploiter</t>
-  </si>
-  <si>
-    <t>VHF</t>
-  </si>
-  <si>
-    <t>Régler Fréquences &amp; Volume</t>
-  </si>
-  <si>
-    <t>VOR</t>
-  </si>
-  <si>
-    <t>Régler Fréquences</t>
-  </si>
-  <si>
-    <t>Transpondeur</t>
-  </si>
-  <si>
-    <t>SBY, 7000</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>Purges (x2)</t>
-  </si>
-  <si>
-    <t>Niveau d'huile</t>
-  </si>
-  <si>
-    <t>Tour avion complet</t>
-  </si>
-  <si>
-    <t>Barre de manœuvre</t>
-  </si>
-  <si>
-    <t>Caches Pitot et statiques</t>
-  </si>
-  <si>
-    <t>Effectuer</t>
-  </si>
-  <si>
-    <t>Vérifier entre 6 et 8</t>
-  </si>
-  <si>
-    <t>Selon manuel de vol</t>
-  </si>
-  <si>
-    <t>Enlever</t>
-  </si>
-  <si>
-    <t>3 - Avant Mise en Route</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>Documents de vol</t>
-  </si>
-  <si>
-    <t>Devis de masse et centrage</t>
-  </si>
-  <si>
-    <t>Index horaire</t>
-  </si>
-  <si>
-    <t>Sièges</t>
-  </si>
-  <si>
-    <t>Ceintures</t>
-  </si>
-  <si>
-    <t>Réservoir principal essence</t>
-  </si>
-  <si>
-    <t>Commande réservoir auxiliaire</t>
-  </si>
-  <si>
-    <t>Frein de parc</t>
-  </si>
-  <si>
-    <t>Réchauf carburant</t>
-  </si>
-  <si>
-    <t>Fusibles &amp; Breakers</t>
-  </si>
-  <si>
-    <t>Instruments</t>
-  </si>
-  <si>
-    <t>A bord</t>
-  </si>
-  <si>
-    <t>Dans les normes</t>
-  </si>
-  <si>
-    <t>Noter</t>
-  </si>
-  <si>
-    <t>Régler, verrouiller</t>
-  </si>
-  <si>
-    <t>En place</t>
-  </si>
-  <si>
-    <t>Essayer, rentrer</t>
-  </si>
-  <si>
-    <t>Débattement essayer</t>
-  </si>
-  <si>
-    <t>Position Ouvert</t>
-  </si>
-  <si>
-    <t>Pousser</t>
-  </si>
-  <si>
-    <t>Serrer</t>
-  </si>
-  <si>
-    <t>Plein riche</t>
-  </si>
-  <si>
-    <t>Essayer, froid (pousser)</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Effectuée, Radio OFF</t>
-  </si>
-  <si>
-    <t>Abord dégagés, extincteurs repérés</t>
-  </si>
-  <si>
-    <t>Voyants alarme</t>
-  </si>
-  <si>
-    <t>Check Boucle radio</t>
-  </si>
-  <si>
-    <t>Anti-collision</t>
-  </si>
-  <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>4 - Mise en route</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
+    <t>Vi atterrissage court (V60°)</t>
+  </si>
+  <si>
+    <t>Vi atterrissage (V 0° ou 15°)</t>
+  </si>
+  <si>
+    <t>Checklist finale</t>
+  </si>
+  <si>
+    <t>115 km/h</t>
+  </si>
+  <si>
+    <t>120 km/h</t>
+  </si>
+  <si>
+    <t>A convenance</t>
+  </si>
+  <si>
+    <t>&lt; 170 km/h</t>
+  </si>
+  <si>
+    <t>15 - Piste dégagée</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Au neutre</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>16 - Au parking</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>16.10</t>
+  </si>
+  <si>
+    <t>OFF, enlever clef</t>
+  </si>
+  <si>
+    <t>Essai coupure</t>
+  </si>
+  <si>
+    <t>Maxi 900 tr/mn</t>
+  </si>
+  <si>
+    <t>17 - Après Arrêt Moteur</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1537,252 +1537,251 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1811,112 +1810,111 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1945,140 +1943,139 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2106,70 +2103,69 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2198,140 +2194,139 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2359,112 +2354,111 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2492,140 +2486,139 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>361</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>367</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2654,168 +2647,167 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>376</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2844,126 +2836,125 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2993,98 +2984,97 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>209</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3114,294 +3104,293 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>365</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>125</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>126</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>127</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3431,196 +3420,195 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3650,154 +3638,153 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3827,84 +3814,83 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3933,259 +3919,258 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="45">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4214,384 +4199,383 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="D26" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4619,70 +4603,69 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Databases/Check_lists_DR400.xlsx
+++ b/Databases/Check_lists_DR400.xlsx
@@ -38,369 +38,511 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
-  <si>
-    <t>Chute régime : Environ 100 tr/mn</t>
-  </si>
-  <si>
-    <t>Froid (pousser)</t>
-  </si>
-  <si>
-    <t>7.12</t>
-  </si>
-  <si>
-    <t>7.13</t>
-  </si>
-  <si>
-    <t>Dans le vert</t>
-  </si>
-  <si>
-    <t>Dépression</t>
-  </si>
-  <si>
-    <t>Ralenti</t>
-  </si>
-  <si>
-    <t>Vérifier (700 tr/mn maxi)</t>
-  </si>
-  <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>7.15</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>Opération</t>
-  </si>
-  <si>
-    <t>Numérotation</t>
-  </si>
-  <si>
-    <t>Action à réaliser</t>
-  </si>
-  <si>
-    <t>Commentaires :</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Verrière</t>
-  </si>
-  <si>
-    <t>Volets</t>
-  </si>
-  <si>
-    <t>Compensateur</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>Magnétos</t>
-  </si>
-  <si>
-    <t>Marche</t>
-  </si>
-  <si>
-    <t>Check Contacts magnétos</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Check Tous contacts électriques</t>
-  </si>
-  <si>
-    <t>Mixture</t>
-  </si>
-  <si>
-    <t>Plein pauvre</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>Jaugeurs</t>
-  </si>
-  <si>
-    <t>Phares, anticollision, feux nav</t>
-  </si>
-  <si>
-    <t>Vérifier</t>
-  </si>
-  <si>
-    <t>Avertisseur décrochage</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>Phase d'Atterrissage</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>Arc blanc</t>
-  </si>
-  <si>
-    <t>15°</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>14 - Finale</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>Vi sans vent (V 60°)</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>Pompe Electrique</t>
-  </si>
-  <si>
-    <t>ON, pression vérifiée</t>
-  </si>
-  <si>
-    <t>Démarrage injections</t>
-  </si>
-  <si>
-    <t>A froid (5), à chaud (2)</t>
-  </si>
-  <si>
-    <t>Démarrage gaz</t>
-  </si>
-  <si>
-    <t>1 cm</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>Champ d'hélice</t>
-  </si>
-  <si>
-    <t>Dégagé</t>
-  </si>
-  <si>
-    <t>Démarreur</t>
-  </si>
-  <si>
-    <t>Régime</t>
-  </si>
-  <si>
-    <t>1000 à 1200 tr/mn</t>
-  </si>
-  <si>
-    <t>Alternateur</t>
-  </si>
-  <si>
-    <t>Voltmètre</t>
-  </si>
-  <si>
-    <t>Vérifier dans le vert</t>
-  </si>
-  <si>
-    <t>Voyant alternateur</t>
-  </si>
-  <si>
-    <t>Vérifier éteint</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>5 - Après Mise en route</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>Sièges</t>
-  </si>
-  <si>
-    <t>Ceintures</t>
-  </si>
-  <si>
-    <t>Réservoir principal essence</t>
-  </si>
-  <si>
-    <t>Commande réservoir auxiliaire</t>
-  </si>
-  <si>
-    <t>Frein de parc</t>
-  </si>
-  <si>
-    <t>Réchauf carburant</t>
-  </si>
-  <si>
-    <t>Fusibles &amp; Breakers</t>
-  </si>
-  <si>
-    <t>Instruments</t>
-  </si>
-  <si>
-    <t>A bord</t>
-  </si>
-  <si>
-    <t>Dans les normes</t>
-  </si>
-  <si>
-    <t>Noter</t>
-  </si>
-  <si>
-    <t>Régler, verrouiller</t>
-  </si>
-  <si>
-    <t>En place</t>
-  </si>
-  <si>
-    <t>Essayer, rentrer</t>
-  </si>
-  <si>
-    <t>Débattement essayer</t>
-  </si>
-  <si>
-    <t>Position Ouvert</t>
-  </si>
-  <si>
-    <t>Pousser</t>
-  </si>
-  <si>
-    <t>Serrer</t>
-  </si>
-  <si>
-    <t>Plein riche</t>
-  </si>
-  <si>
-    <t>Essayer, froid (pousser)</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Effectuée, Radio OFF</t>
-  </si>
-  <si>
-    <t>Abord dégagés, extincteurs repérés</t>
-  </si>
-  <si>
-    <t>Voyants alarme</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="393">
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>1200 tr/mn</t>
+  </si>
+  <si>
+    <t>Vi atterrissage court (V60°)</t>
+  </si>
+  <si>
+    <t>Vi atterrissage (V 0° ou 15°)</t>
+  </si>
+  <si>
+    <t>Checklist finale</t>
+  </si>
+  <si>
+    <t>115 km/h</t>
+  </si>
+  <si>
+    <t>120 km/h</t>
+  </si>
+  <si>
+    <t>A convenance</t>
+  </si>
+  <si>
+    <t>&lt; 170 km/h</t>
+  </si>
+  <si>
+    <t>15 - Piste dégagée</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Au neutre</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>16 - Au parking</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>16.6</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>16.10</t>
+  </si>
+  <si>
+    <t>OFF, enlever clef</t>
+  </si>
+  <si>
+    <t>Essai coupure</t>
+  </si>
+  <si>
+    <t>Maxi 900 tr/mn</t>
+  </si>
+  <si>
+    <t>17 - Après Arrêt Moteur</t>
+  </si>
+  <si>
+    <t>DR400-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR400-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR400-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>Documents de vol</t>
+  </si>
+  <si>
+    <t>Devis de masse et centrage</t>
+  </si>
+  <si>
+    <t>Index horaire</t>
+  </si>
+  <si>
+    <t>Mini 2220 tr/mn</t>
+  </si>
+  <si>
+    <t>Plein gaz</t>
+  </si>
+  <si>
+    <t>11 - A 300 ft et Obstacles dégagés</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>Vi de montée taux max</t>
+  </si>
+  <si>
+    <t>Paramètres moteurs</t>
+  </si>
+  <si>
+    <t>Pas d'alarmes</t>
+  </si>
+  <si>
+    <t>Rentrer</t>
+  </si>
+  <si>
+    <t>150 km/h</t>
+  </si>
+  <si>
+    <t>A la demande</t>
+  </si>
+  <si>
+    <t>2450 tr/mn</t>
+  </si>
+  <si>
+    <t>12 - Descente</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Réchauffage carburant</t>
+  </si>
+  <si>
+    <t>QNH</t>
+  </si>
+  <si>
+    <t>13 - Vent Arrière</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Réduction de vitesse Vi</t>
+  </si>
+  <si>
+    <t>Réservoir principal</t>
+  </si>
+  <si>
+    <t>Check QNH réglé, noter erreur Alti</t>
+  </si>
+  <si>
+    <t>Vérifier Eteint</t>
+  </si>
+  <si>
+    <t>Verrouillés</t>
+  </si>
+  <si>
+    <t>Attachées</t>
+  </si>
+  <si>
+    <t>Verrouiller</t>
+  </si>
+  <si>
+    <t>Check Contact magnétos</t>
+  </si>
+  <si>
+    <t>Check Sièges</t>
+  </si>
+  <si>
+    <t>Check ceintures</t>
+  </si>
+  <si>
+    <t>Briefing départ</t>
+  </si>
+  <si>
+    <t>Briefing décollage</t>
+  </si>
+  <si>
+    <t>8.17</t>
+  </si>
+  <si>
+    <t>8.18</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>8.22</t>
+  </si>
+  <si>
+    <t>8.23</t>
+  </si>
+  <si>
+    <t>au moment de s'aligner</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>Phare</t>
+  </si>
+  <si>
+    <t>pas d'avion en finale</t>
+  </si>
+  <si>
+    <t>9 - Aligne</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Compas</t>
+  </si>
+  <si>
+    <t>Heure</t>
+  </si>
+  <si>
+    <t>Noter erreur</t>
+  </si>
+  <si>
+    <t>QFU de la piste</t>
+  </si>
+  <si>
+    <t>10 - Décollage</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>Puissance</t>
+  </si>
+  <si>
+    <t>Pas d'alarme</t>
+  </si>
+  <si>
+    <t>Badin actif</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Montée initiale (pente max)</t>
+  </si>
+  <si>
+    <t>130 km/h</t>
+  </si>
+  <si>
+    <t>100 km/h</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>Check Alternateur</t>
+  </si>
+  <si>
+    <t>Pompe ELEC</t>
+  </si>
+  <si>
+    <t>Pression essence</t>
+  </si>
+  <si>
+    <t>Vérifier Mano dans le vert</t>
+  </si>
+  <si>
+    <t>Pression essence (2)</t>
+  </si>
+  <si>
+    <t>Pression essence (1)</t>
+  </si>
+  <si>
+    <t>Vérifier Voyant éteint</t>
+  </si>
+  <si>
+    <t>Régler Maquette</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Conservateur de cap</t>
+  </si>
+  <si>
+    <t>Recaler</t>
+  </si>
+  <si>
+    <t>ON, Check Boucle effectuée</t>
+  </si>
+  <si>
+    <t>Attacher</t>
+  </si>
+  <si>
+    <t>Briefing roulage</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Piorité</t>
+  </si>
+  <si>
+    <t>6 - Roulage</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Phare de roulage</t>
+  </si>
+  <si>
+    <t>Heure bloc</t>
+  </si>
+  <si>
+    <t>Au parking : Essais freins</t>
+  </si>
+  <si>
+    <t>Hors parking : Compas, Directionnel, bille, Aiguille &amp; Horizon</t>
+  </si>
+  <si>
+    <t>7 - Point d'arrêt</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
   </si>
   <si>
     <t>Check Boucle radio</t>
@@ -724,481 +866,367 @@
     <t>3.7</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>Documents de vol</t>
-  </si>
-  <si>
-    <t>Devis de masse et centrage</t>
-  </si>
-  <si>
-    <t>Index horaire</t>
-  </si>
-  <si>
-    <t>Mini 2220 tr/mn</t>
-  </si>
-  <si>
-    <t>Plein gaz</t>
-  </si>
-  <si>
-    <t>11 - A 300 ft et Obstacles dégagés</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>Vi de montée taux max</t>
-  </si>
-  <si>
-    <t>Paramètres moteurs</t>
-  </si>
-  <si>
-    <t>Pas d'alarmes</t>
-  </si>
-  <si>
-    <t>Rentrer</t>
-  </si>
-  <si>
-    <t>150 km/h</t>
-  </si>
-  <si>
-    <t>A la demande</t>
-  </si>
-  <si>
-    <t>2450 tr/mn</t>
-  </si>
-  <si>
-    <t>12 - Descente</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>Réchauffage carburant</t>
-  </si>
-  <si>
-    <t>QNH</t>
-  </si>
-  <si>
-    <t>13 - Vent Arrière</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>Réduction de vitesse Vi</t>
-  </si>
-  <si>
-    <t>Réservoir principal</t>
-  </si>
-  <si>
-    <t>Check QNH réglé, noter erreur Alti</t>
-  </si>
-  <si>
-    <t>Vérifier Eteint</t>
-  </si>
-  <si>
-    <t>Verrouillés</t>
-  </si>
-  <si>
-    <t>Attachées</t>
-  </si>
-  <si>
-    <t>Verrouiller</t>
-  </si>
-  <si>
-    <t>Check Contact magnétos</t>
-  </si>
-  <si>
-    <t>Check Sièges</t>
-  </si>
-  <si>
-    <t>Check ceintures</t>
-  </si>
-  <si>
-    <t>Briefing départ</t>
-  </si>
-  <si>
-    <t>Briefing décollage</t>
-  </si>
-  <si>
-    <t>8.17</t>
-  </si>
-  <si>
-    <t>8.18</t>
-  </si>
-  <si>
-    <t>8.19</t>
-  </si>
-  <si>
-    <t>8.20</t>
-  </si>
-  <si>
-    <t>8.21</t>
-  </si>
-  <si>
-    <t>8.22</t>
-  </si>
-  <si>
-    <t>8.23</t>
-  </si>
-  <si>
-    <t>au moment de s'aligner</t>
-  </si>
-  <si>
-    <t>8.24</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>Phare</t>
-  </si>
-  <si>
-    <t>pas d'avion en finale</t>
-  </si>
-  <si>
-    <t>9 - Aligne</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>Compas</t>
-  </si>
-  <si>
-    <t>Heure</t>
-  </si>
-  <si>
-    <t>Noter erreur</t>
-  </si>
-  <si>
-    <t>QFU de la piste</t>
-  </si>
-  <si>
-    <t>10 - Décollage</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>Puissance</t>
-  </si>
-  <si>
-    <t>Pas d'alarme</t>
-  </si>
-  <si>
-    <t>Badin actif</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t>Montée initiale (pente max)</t>
-  </si>
-  <si>
-    <t>130 km/h</t>
-  </si>
-  <si>
-    <t>100 km/h</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>Check Alternateur</t>
-  </si>
-  <si>
-    <t>Pompe ELEC</t>
-  </si>
-  <si>
-    <t>Pression essence</t>
-  </si>
-  <si>
-    <t>Vérifier Mano dans le vert</t>
-  </si>
-  <si>
-    <t>Pression essence (2)</t>
-  </si>
-  <si>
-    <t>Pression essence (1)</t>
-  </si>
-  <si>
-    <t>Vérifier Voyant éteint</t>
-  </si>
-  <si>
-    <t>Régler Maquette</t>
-  </si>
-  <si>
-    <t>Horizon</t>
-  </si>
-  <si>
-    <t>Conservateur de cap</t>
-  </si>
-  <si>
-    <t>Recaler</t>
-  </si>
-  <si>
-    <t>ON, Check Boucle effectuée</t>
-  </si>
-  <si>
-    <t>Attacher</t>
-  </si>
-  <si>
-    <t>Briefing roulage</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>Priorité</t>
-  </si>
-  <si>
-    <t>Piorité</t>
-  </si>
-  <si>
-    <t>6 - Roulage</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>Phare de roulage</t>
-  </si>
-  <si>
-    <t>Heure bloc</t>
-  </si>
-  <si>
-    <t>Au parking : Essais freins</t>
-  </si>
-  <si>
-    <t>Hors parking : Compas, Directionnel, bille, Aiguille &amp; Horizon</t>
-  </si>
-  <si>
-    <t>7 - Point d'arrêt</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
-    <t>1200 tr/mn</t>
-  </si>
-  <si>
-    <t>Vi atterrissage court (V60°)</t>
-  </si>
-  <si>
-    <t>Vi atterrissage (V 0° ou 15°)</t>
-  </si>
-  <si>
-    <t>Checklist finale</t>
-  </si>
-  <si>
-    <t>115 km/h</t>
-  </si>
-  <si>
-    <t>120 km/h</t>
-  </si>
-  <si>
-    <t>A convenance</t>
-  </si>
-  <si>
-    <t>&lt; 170 km/h</t>
-  </si>
-  <si>
-    <t>15 - Piste dégagée</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>15.6</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Au neutre</t>
-  </si>
-  <si>
-    <t>0°</t>
-  </si>
-  <si>
-    <t>16 - Au parking</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>16.6</t>
-  </si>
-  <si>
-    <t>16.7</t>
-  </si>
-  <si>
-    <t>16.8</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>16.10</t>
-  </si>
-  <si>
-    <t>OFF, enlever clef</t>
-  </si>
-  <si>
-    <t>Essai coupure</t>
-  </si>
-  <si>
-    <t>Maxi 900 tr/mn</t>
-  </si>
-  <si>
-    <t>17 - Après Arrêt Moteur</t>
+    <t>Chute régime : Environ 100 tr/mn</t>
+  </si>
+  <si>
+    <t>Froid (pousser)</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>Dans le vert</t>
+  </si>
+  <si>
+    <t>Dépression</t>
+  </si>
+  <si>
+    <t>Ralenti</t>
+  </si>
+  <si>
+    <t>Vérifier (700 tr/mn maxi)</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>Opération</t>
+  </si>
+  <si>
+    <t>Numérotation</t>
+  </si>
+  <si>
+    <t>Action à réaliser</t>
+  </si>
+  <si>
+    <t>Commentaires :</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Verrière</t>
+  </si>
+  <si>
+    <t>Volets</t>
+  </si>
+  <si>
+    <t>Compensateur</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Magnétos</t>
+  </si>
+  <si>
+    <t>Marche</t>
+  </si>
+  <si>
+    <t>Check Contacts magnétos</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Check Tous contacts électriques</t>
+  </si>
+  <si>
+    <t>Mixture</t>
+  </si>
+  <si>
+    <t>Plein pauvre</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Jaugeurs</t>
+  </si>
+  <si>
+    <t>Phares, anticollision, feux nav</t>
+  </si>
+  <si>
+    <t>Vérifier</t>
+  </si>
+  <si>
+    <t>Avertisseur décrochage</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Phase d'Atterrissage</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>Arc blanc</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>14 - Finale</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>Vi sans vent (V 60°)</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Pompe Electrique</t>
+  </si>
+  <si>
+    <t>ON, pression vérifiée</t>
+  </si>
+  <si>
+    <t>Démarrage injections</t>
+  </si>
+  <si>
+    <t>A froid (5), à chaud (2)</t>
+  </si>
+  <si>
+    <t>Démarrage gaz</t>
+  </si>
+  <si>
+    <t>1 cm</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>Champ d'hélice</t>
+  </si>
+  <si>
+    <t>Dégagé</t>
+  </si>
+  <si>
+    <t>Démarreur</t>
+  </si>
+  <si>
+    <t>Régime</t>
+  </si>
+  <si>
+    <t>1000 à 1200 tr/mn</t>
+  </si>
+  <si>
+    <t>Alternateur</t>
+  </si>
+  <si>
+    <t>Voltmètre</t>
+  </si>
+  <si>
+    <t>Vérifier dans le vert</t>
+  </si>
+  <si>
+    <t>Voyant alternateur</t>
+  </si>
+  <si>
+    <t>Vérifier éteint</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>5 - Après Mise en route</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Sièges</t>
+  </si>
+  <si>
+    <t>Ceintures</t>
+  </si>
+  <si>
+    <t>Réservoir principal essence</t>
+  </si>
+  <si>
+    <t>Commande réservoir auxiliaire</t>
+  </si>
+  <si>
+    <t>Frein de parc</t>
+  </si>
+  <si>
+    <t>Réchauf carburant</t>
+  </si>
+  <si>
+    <t>Fusibles &amp; Breakers</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>A bord</t>
+  </si>
+  <si>
+    <t>Dans les normes</t>
+  </si>
+  <si>
+    <t>Noter</t>
+  </si>
+  <si>
+    <t>Régler, verrouiller</t>
+  </si>
+  <si>
+    <t>En place</t>
+  </si>
+  <si>
+    <t>Essayer, rentrer</t>
+  </si>
+  <si>
+    <t>Débattement essayer</t>
+  </si>
+  <si>
+    <t>Position Ouvert</t>
+  </si>
+  <si>
+    <t>Pousser</t>
+  </si>
+  <si>
+    <t>Serrer</t>
+  </si>
+  <si>
+    <t>Plein riche</t>
+  </si>
+  <si>
+    <t>Essayer, froid (pousser)</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Effectuée, Radio OFF</t>
+  </si>
+  <si>
+    <t>Abord dégagés, extincteurs repérés</t>
+  </si>
+  <si>
+    <t>Voyants alarme</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,7 +1543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1520,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1535,253 +1566,276 @@
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>312</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1810,108 +1864,108 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1943,136 +1997,136 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
         <v>315</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2103,66 +2157,66 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2194,136 +2248,136 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2354,108 +2408,108 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>333</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2486,136 +2540,136 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2647,164 +2701,164 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2836,122 +2890,122 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2984,94 +3038,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3104,290 +3158,290 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3420,192 +3474,192 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>357</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>359</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>360</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3638,150 +3692,150 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>367</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>368</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3814,80 +3868,80 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3919,255 +3973,255 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="45">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4199,380 +4253,380 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>274</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4603,66 +4657,66 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
